--- a/biology/Zoologie/Daphnis_moorei/Daphnis_moorei.xlsx
+++ b/biology/Zoologie/Daphnis_moorei/Daphnis_moorei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daphnis moorei est une espèce de lépidoptère appartenant à la famille des Sphingidae, à la sous-famille des Macroglossinae, et au genre Daphnis.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aspect est très proche de Daphnis hypothous avec laquelle la confusion a longtemps été faite.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue en Indonésie (y compris les Moluques ), la Papouasie-Nouvelle-Guinée et la moitié nord de l'Australie.</t>
@@ -573,15 +589,51 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Daphnis moorei a été décrite par l'entomologiste australien William John Macleay en 1866, sous le nom initial de Darapsa moorei reclassé en 2010 par Eitschberger et Melichar[1].
-Synonymie
-Darapsa moorei Macleay, W.J., 1866 Protonyme[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Daphnis moorei a été décrite par l'entomologiste australien William John Macleay en 1866, sous le nom initial de Darapsa moorei reclassé en 2010 par Eitschberger et Melichar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daphnis_moorei</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daphnis_moorei</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Darapsa moorei Macleay, W.J., 1866 Protonyme
 Daphnis pallescens Butler, 1875
 Daphnis magnifica Butler, 1877
 Deilephila gigantea Röber, 1921
-Daphnis gloriosa Rothschild, 1894[3]
+Daphnis gloriosa Rothschild, 1894
 Daphnis hypothous moorei (W.J. Macleay, 1866)</t>
         </is>
       </c>
